--- a/Test files/test.xlsx
+++ b/Test files/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrbon\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamorozov\PycharmProjects\DDparser\Test files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="8">
   <si>
     <t>x1f</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>F rate, kmole/kg</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -376,1312 +379,1507 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection sqref="A1:G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="1">
         <v>0.55555555555555558</v>
       </c>
+      <c r="D2">
+        <v>0.999</v>
+      </c>
       <c r="E2">
-        <v>0.999</v>
+        <v>0.36</v>
       </c>
       <c r="F2">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="1">
         <v>0.55555555555555558</v>
       </c>
+      <c r="D3">
+        <v>0.999</v>
+      </c>
       <c r="E3">
-        <v>0.999</v>
+        <v>0.36</v>
       </c>
       <c r="F3">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="1">
         <v>0.55555555555555558</v>
       </c>
+      <c r="D4">
+        <v>0.999</v>
+      </c>
       <c r="E4">
-        <v>0.999</v>
+        <v>0.36</v>
       </c>
       <c r="F4">
+        <v>0.2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D5">
+        <v>0.999</v>
+      </c>
+      <c r="E5">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="E5">
-        <v>0.999</v>
-      </c>
       <c r="F5">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="1">
         <v>0.38461538461538464</v>
       </c>
+      <c r="D6">
+        <v>0.999</v>
+      </c>
       <c r="E6">
-        <v>0.999</v>
+        <v>0.52</v>
       </c>
       <c r="F6">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="C7" s="1">
         <v>0.38461538461538464</v>
       </c>
+      <c r="D7">
+        <v>0.999</v>
+      </c>
       <c r="E7">
-        <v>0.999</v>
+        <v>0.52</v>
       </c>
       <c r="F7">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="C8" s="1">
         <v>0.38461538461538464</v>
       </c>
+      <c r="D8">
+        <v>0.999</v>
+      </c>
       <c r="E8">
-        <v>0.999</v>
+        <v>0.52</v>
       </c>
       <c r="F8">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="1">
         <v>0.38461538461538464</v>
       </c>
+      <c r="D9">
+        <v>0.999</v>
+      </c>
       <c r="E9">
-        <v>0.999</v>
+        <v>0.52</v>
       </c>
       <c r="F9">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="1">
         <v>0.29411764705882359</v>
       </c>
+      <c r="D10">
+        <v>0.999</v>
+      </c>
       <c r="E10">
-        <v>0.999</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="F10">
-        <v>0.67999999999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="1">
         <v>0.29411764705882359</v>
       </c>
+      <c r="D11">
+        <v>0.999</v>
+      </c>
       <c r="E11">
-        <v>0.999</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="F11">
-        <v>0.67999999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>5</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="1">
         <v>0.29411764705882359</v>
       </c>
+      <c r="D12">
+        <v>0.999</v>
+      </c>
       <c r="E12">
-        <v>0.999</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="F12">
-        <v>0.67999999999999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="1">
         <v>0.29411764705882359</v>
       </c>
+      <c r="D13">
+        <v>0.999</v>
+      </c>
       <c r="E13">
-        <v>0.999</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="F13">
-        <v>0.67999999999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="1">
         <v>0.23809523809523808</v>
       </c>
+      <c r="D14">
+        <v>0.999</v>
+      </c>
       <c r="E14">
-        <v>0.999</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="F14">
-        <v>0.84000000000000008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15" s="1">
         <v>0.23809523809523808</v>
       </c>
+      <c r="D15">
+        <v>0.999</v>
+      </c>
       <c r="E15">
-        <v>0.999</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="F15">
-        <v>0.84000000000000008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="1">
         <v>0.23809523809523808</v>
       </c>
+      <c r="D16">
+        <v>0.999</v>
+      </c>
       <c r="E16">
-        <v>0.999</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="F16">
-        <v>0.84000000000000008</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="1">
         <v>0.23809523809523808</v>
       </c>
+      <c r="D17">
+        <v>0.999</v>
+      </c>
       <c r="E17">
-        <v>0.999</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="F17">
-        <v>0.84000000000000008</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="1">
         <v>0.76923076923076927</v>
       </c>
+      <c r="D18">
+        <v>0.999</v>
+      </c>
       <c r="E18">
-        <v>0.999</v>
+        <v>0.52</v>
       </c>
       <c r="F18">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>5</v>
       </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="1">
         <v>0.76923076923076927</v>
       </c>
+      <c r="D19">
+        <v>0.999</v>
+      </c>
       <c r="E19">
-        <v>0.999</v>
+        <v>0.52</v>
       </c>
       <c r="F19">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" s="1">
         <v>0.76923076923076927</v>
       </c>
+      <c r="D20">
+        <v>0.999</v>
+      </c>
       <c r="E20">
-        <v>0.999</v>
+        <v>0.52</v>
       </c>
       <c r="F20">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1">
+      <c r="C21" s="1">
         <v>0.76923076923076927</v>
       </c>
+      <c r="D21">
+        <v>0.999</v>
+      </c>
       <c r="E21">
-        <v>0.999</v>
+        <v>0.52</v>
       </c>
       <c r="F21">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1">
+      <c r="C22" s="1">
         <v>0.625</v>
       </c>
+      <c r="D22">
+        <v>0.999</v>
+      </c>
       <c r="E22">
-        <v>0.999</v>
+        <v>0.64</v>
       </c>
       <c r="F22">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1">
+      <c r="C23" s="1">
         <v>0.625</v>
       </c>
+      <c r="D23">
+        <v>0.999</v>
+      </c>
       <c r="E23">
-        <v>0.999</v>
+        <v>0.64</v>
       </c>
       <c r="F23">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
+      <c r="C24" s="1">
         <v>0.625</v>
       </c>
+      <c r="D24">
+        <v>0.999</v>
+      </c>
       <c r="E24">
-        <v>0.999</v>
+        <v>0.64</v>
       </c>
       <c r="F24">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25" s="1">
         <v>0.625</v>
       </c>
+      <c r="D25">
+        <v>0.999</v>
+      </c>
       <c r="E25">
-        <v>0.999</v>
+        <v>0.64</v>
       </c>
       <c r="F25">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C26" s="1">
         <v>0.52631578947368418</v>
       </c>
+      <c r="D26">
+        <v>0.999</v>
+      </c>
       <c r="E26">
-        <v>0.999</v>
+        <v>0.76</v>
       </c>
       <c r="F26">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="G26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" s="1">
         <v>0.52631578947368418</v>
       </c>
+      <c r="D27">
+        <v>0.999</v>
+      </c>
       <c r="E27">
-        <v>0.999</v>
+        <v>0.76</v>
       </c>
       <c r="F27">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="C28" s="1">
         <v>0.52631578947368418</v>
       </c>
+      <c r="D28">
+        <v>0.999</v>
+      </c>
       <c r="E28">
-        <v>0.999</v>
+        <v>0.76</v>
       </c>
       <c r="F28">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="G28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="C29" s="1">
         <v>0.52631578947368418</v>
       </c>
+      <c r="D29">
+        <v>0.999</v>
+      </c>
       <c r="E29">
-        <v>0.999</v>
+        <v>0.76</v>
       </c>
       <c r="F29">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="1">
+      <c r="C30" s="1">
         <v>0.45454545454545459</v>
       </c>
+      <c r="D30">
+        <v>0.999</v>
+      </c>
       <c r="E30">
-        <v>0.999</v>
+        <v>0.88</v>
       </c>
       <c r="F30">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="C31" s="1">
         <v>0.45454545454545459</v>
       </c>
+      <c r="D31">
+        <v>0.999</v>
+      </c>
       <c r="E31">
-        <v>0.999</v>
+        <v>0.88</v>
       </c>
       <c r="F31">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="C32" s="1">
         <v>0.45454545454545459</v>
       </c>
+      <c r="D32">
+        <v>0.999</v>
+      </c>
       <c r="E32">
-        <v>0.999</v>
+        <v>0.88</v>
       </c>
       <c r="F32">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="C33" s="1">
         <v>0.45454545454545459</v>
       </c>
+      <c r="D33">
+        <v>0.999</v>
+      </c>
       <c r="E33">
-        <v>0.999</v>
+        <v>0.88</v>
       </c>
       <c r="F33">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="C34" s="1">
         <v>0.88235294117647067</v>
       </c>
+      <c r="D34">
+        <v>0.999</v>
+      </c>
       <c r="E34">
-        <v>0.999</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="F34">
-        <v>0.67999999999999994</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
         <v>5</v>
       </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="C35" s="1">
         <v>0.88235294117647067</v>
       </c>
+      <c r="D35">
+        <v>0.999</v>
+      </c>
       <c r="E35">
-        <v>0.999</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="F35">
-        <v>0.67999999999999994</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="C36" s="1">
         <v>0.88235294117647067</v>
       </c>
+      <c r="D36">
+        <v>0.999</v>
+      </c>
       <c r="E36">
-        <v>0.999</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="F36">
-        <v>0.67999999999999994</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="1">
+      <c r="C37" s="1">
         <v>0.88235294117647067</v>
       </c>
+      <c r="D37">
+        <v>0.999</v>
+      </c>
       <c r="E37">
-        <v>0.999</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="F37">
-        <v>0.67999999999999994</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="1">
+      <c r="C38" s="1">
         <v>0.78947368421052633</v>
       </c>
+      <c r="D38">
+        <v>0.999</v>
+      </c>
       <c r="E38">
-        <v>0.999</v>
+        <v>0.76</v>
       </c>
       <c r="F38">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="C39" s="1">
         <v>0.78947368421052633</v>
       </c>
+      <c r="D39">
+        <v>0.999</v>
+      </c>
       <c r="E39">
-        <v>0.999</v>
+        <v>0.76</v>
       </c>
       <c r="F39">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="C40" s="1">
         <v>0.78947368421052633</v>
       </c>
+      <c r="D40">
+        <v>0.999</v>
+      </c>
       <c r="E40">
-        <v>0.999</v>
+        <v>0.76</v>
       </c>
       <c r="F40">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="C41" s="1">
         <v>0.78947368421052633</v>
       </c>
+      <c r="D41">
+        <v>0.999</v>
+      </c>
       <c r="E41">
-        <v>0.999</v>
+        <v>0.76</v>
       </c>
       <c r="F41">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
         <v>5</v>
       </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="C42" s="1">
         <v>0.7142857142857143</v>
       </c>
+      <c r="D42">
+        <v>0.999</v>
+      </c>
       <c r="E42">
-        <v>0.999</v>
+        <v>0.84</v>
       </c>
       <c r="F42">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
         <v>5</v>
       </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="C43" s="1">
         <v>0.7142857142857143</v>
       </c>
+      <c r="D43">
+        <v>0.999</v>
+      </c>
       <c r="E43">
-        <v>0.999</v>
+        <v>0.84</v>
       </c>
       <c r="F43">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
         <v>5</v>
       </c>
-      <c r="C44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="C44" s="1">
         <v>0.7142857142857143</v>
       </c>
+      <c r="D44">
+        <v>0.999</v>
+      </c>
       <c r="E44">
-        <v>0.999</v>
+        <v>0.84</v>
       </c>
       <c r="F44">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
-      <c r="C45" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="1">
+      <c r="C45" s="1">
         <v>0.7142857142857143</v>
       </c>
+      <c r="D45">
+        <v>0.999</v>
+      </c>
       <c r="E45">
-        <v>0.999</v>
+        <v>0.84</v>
       </c>
       <c r="F45">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
-      <c r="C46" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="C46" s="1">
         <v>0.65217391304347827</v>
       </c>
+      <c r="D46">
+        <v>0.999</v>
+      </c>
       <c r="E46">
-        <v>0.999</v>
+        <v>0.91999999999999993</v>
       </c>
       <c r="F46">
-        <v>0.91999999999999993</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
         <v>5</v>
       </c>
-      <c r="C47" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="C47" s="1">
         <v>0.65217391304347827</v>
       </c>
+      <c r="D47">
+        <v>0.999</v>
+      </c>
       <c r="E47">
-        <v>0.999</v>
+        <v>0.91999999999999993</v>
       </c>
       <c r="F47">
-        <v>0.91999999999999993</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
         <v>5</v>
       </c>
-      <c r="C48" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="C48" s="1">
         <v>0.65217391304347827</v>
       </c>
+      <c r="D48">
+        <v>0.999</v>
+      </c>
       <c r="E48">
-        <v>0.999</v>
+        <v>0.91999999999999993</v>
       </c>
       <c r="F48">
-        <v>0.91999999999999993</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>5</v>
       </c>
-      <c r="C49" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="C49" s="1">
         <v>0.65217391304347827</v>
       </c>
+      <c r="D49">
+        <v>0.999</v>
+      </c>
       <c r="E49">
-        <v>0.999</v>
+        <v>0.91999999999999993</v>
       </c>
       <c r="F49">
-        <v>0.91999999999999993</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
         <v>5</v>
       </c>
-      <c r="C50" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="C50" s="1">
         <v>0.95238095238095233</v>
       </c>
+      <c r="D50">
+        <v>0.999</v>
+      </c>
       <c r="E50">
-        <v>0.999</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="F50">
-        <v>0.84000000000000008</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
         <v>5</v>
       </c>
-      <c r="C51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="C51" s="1">
         <v>0.95238095238095233</v>
       </c>
+      <c r="D51">
+        <v>0.999</v>
+      </c>
       <c r="E51">
-        <v>0.999</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="F51">
-        <v>0.84000000000000008</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
         <v>5</v>
       </c>
-      <c r="C52" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="C52" s="1">
         <v>0.95238095238095233</v>
       </c>
+      <c r="D52">
+        <v>0.999</v>
+      </c>
       <c r="E52">
-        <v>0.999</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="F52">
-        <v>0.84000000000000008</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
         <v>5</v>
       </c>
-      <c r="C53" t="s">
-        <v>4</v>
-      </c>
-      <c r="D53" s="1">
+      <c r="C53" s="1">
         <v>0.95238095238095233</v>
       </c>
+      <c r="D53">
+        <v>0.999</v>
+      </c>
       <c r="E53">
-        <v>0.999</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="F53">
-        <v>0.84000000000000008</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="G53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
-      <c r="C54" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="1">
+      <c r="C54" s="1">
         <v>0.90909090909090917</v>
       </c>
+      <c r="D54">
+        <v>0.999</v>
+      </c>
       <c r="E54">
-        <v>0.999</v>
+        <v>0.88</v>
       </c>
       <c r="F54">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="G54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
         <v>5</v>
       </c>
-      <c r="C55" t="s">
-        <v>4</v>
-      </c>
-      <c r="D55" s="1">
+      <c r="C55" s="1">
         <v>0.90909090909090917</v>
       </c>
+      <c r="D55">
+        <v>0.999</v>
+      </c>
       <c r="E55">
-        <v>0.999</v>
+        <v>0.88</v>
       </c>
       <c r="F55">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="G55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
         <v>5</v>
       </c>
-      <c r="C56" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="C56" s="1">
         <v>0.90909090909090917</v>
       </c>
+      <c r="D56">
+        <v>0.999</v>
+      </c>
       <c r="E56">
-        <v>0.999</v>
+        <v>0.88</v>
       </c>
       <c r="F56">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
         <v>5</v>
       </c>
-      <c r="C57" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="C57" s="1">
         <v>0.90909090909090917</v>
       </c>
+      <c r="D57">
+        <v>0.999</v>
+      </c>
       <c r="E57">
-        <v>0.999</v>
+        <v>0.88</v>
       </c>
       <c r="F57">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
         <v>5</v>
       </c>
-      <c r="C58" t="s">
-        <v>4</v>
-      </c>
-      <c r="D58" s="1">
+      <c r="C58" s="1">
         <v>0.86956521739130432</v>
       </c>
+      <c r="D58">
+        <v>0.999</v>
+      </c>
       <c r="E58">
-        <v>0.999</v>
+        <v>0.92</v>
       </c>
       <c r="F58">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
         <v>5</v>
       </c>
-      <c r="C59" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="1">
+      <c r="C59" s="1">
         <v>0.86956521739130432</v>
       </c>
+      <c r="D59">
+        <v>0.999</v>
+      </c>
       <c r="E59">
-        <v>0.999</v>
+        <v>0.92</v>
       </c>
       <c r="F59">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
         <v>5</v>
       </c>
-      <c r="C60" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="1">
+      <c r="C60" s="1">
         <v>0.86956521739130432</v>
       </c>
+      <c r="D60">
+        <v>0.999</v>
+      </c>
       <c r="E60">
-        <v>0.999</v>
+        <v>0.92</v>
       </c>
       <c r="F60">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
         <v>5</v>
       </c>
-      <c r="C61" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="1">
+      <c r="C61" s="1">
         <v>0.86956521739130432</v>
       </c>
+      <c r="D61">
+        <v>0.999</v>
+      </c>
       <c r="E61">
-        <v>0.999</v>
+        <v>0.92</v>
       </c>
       <c r="F61">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <v>5</v>
       </c>
-      <c r="C62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="C62" s="1">
         <v>0.83333333333333326</v>
       </c>
+      <c r="D62">
+        <v>0.999</v>
+      </c>
       <c r="E62">
-        <v>0.999</v>
+        <v>0.96000000000000008</v>
       </c>
       <c r="F62">
-        <v>0.96000000000000008</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
         <v>5</v>
       </c>
-      <c r="C63" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="C63" s="1">
         <v>0.83333333333333326</v>
       </c>
+      <c r="D63">
+        <v>0.999</v>
+      </c>
       <c r="E63">
-        <v>0.999</v>
+        <v>0.96000000000000008</v>
       </c>
       <c r="F63">
-        <v>0.96000000000000008</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
         <v>5</v>
       </c>
-      <c r="C64" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="C64" s="1">
         <v>0.83333333333333326</v>
       </c>
+      <c r="D64">
+        <v>0.999</v>
+      </c>
       <c r="E64">
-        <v>0.999</v>
+        <v>0.96000000000000008</v>
       </c>
       <c r="F64">
-        <v>0.96000000000000008</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
         <v>5</v>
       </c>
-      <c r="C65" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="C65" s="1">
         <v>0.83333333333333326</v>
       </c>
+      <c r="D65">
+        <v>0.999</v>
+      </c>
       <c r="E65">
-        <v>0.999</v>
+        <v>0.96000000000000008</v>
       </c>
       <c r="F65">
-        <v>0.96000000000000008</v>
+        <v>0.8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
